--- a/Result.xlsx
+++ b/Result.xlsx
@@ -18,39 +18,17 @@
     <sheet name="Video複偵測" sheetId="10" state="visible" r:id="rId10"/>
     <sheet name="Video複偵測1" sheetId="11" state="visible" r:id="rId11"/>
     <sheet name="紗布_少偵測" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="紗布_重複偵測" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="鼻子_重複偵測" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="紗布_重複偵測1" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="紗布_重複偵測2" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="紗布_重複偵測3" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="紗布_少偵測1" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="紗布_重複偵測4" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="紗布_重複偵測5" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="鏡頭上血跡" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="紗布_少偵測2" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="鼻子_重複偵測1" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="紗布_少偵測3" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="紗布_少偵測4" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="紗布_少偵測5" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="鏡頭上血跡1" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="紗布_少偵測6" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="紗布_少偵測7" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="紗布_少偵測8" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="紗布_少偵測9" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="紗布_少偵測10" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="紗布_少偵測11" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="紗布_少偵測12" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="紗布_少偵測13" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="紗布_少偵測14" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="紗布_少偵測15" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="紗布_少偵測16" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="紗布_少偵測17" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="紗布_少偵測18" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="紗布_少偵測19" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="try_video" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="紗布_少偵測20" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="紗布_少偵測21" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="try_video1" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="紗布_少偵測1" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="紗布_少偵測2" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="紗布_少偵測3" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="紗布_少偵測4" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="try_video" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="紗布_少偵測5" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="5" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="52" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="53" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="54" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="紗布_少偵測6" sheetId="23" state="visible" r:id="rId23"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -660,7 +638,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0: 1</t>
+          <t>00: 1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -670,7 +648,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0: 2</t>
+          <t>00: 2</t>
         </is>
       </c>
     </row>
@@ -696,7 +674,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>紗布_重複偵測</t>
+          <t>紗布_少偵測</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -728,22 +706,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>30</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0: 1</t>
+          <t>00: 1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>62</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0: 4</t>
+          <t>00: 2</t>
         </is>
       </c>
     </row>
@@ -758,7 +736,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -769,7 +747,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>鼻子_重複偵測</t>
+          <t>紗布_少偵測</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -790,6 +768,33 @@
       <c r="E1" t="inlineStr">
         <is>
           <t>End Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Interrupt#0</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>00: 1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>00: 2</t>
         </is>
       </c>
     </row>
@@ -815,7 +820,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>紗布_重複偵測</t>
+          <t>紗布_少偵測</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -847,22 +852,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>30</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0: 1</t>
+          <t>00: 1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>62</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0: 4</t>
+          <t>00: 2</t>
         </is>
       </c>
     </row>
@@ -888,7 +893,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>紗布_重複偵測</t>
+          <t>紗布_少偵測</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -920,22 +925,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>30</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0: 1</t>
+          <t>00: 01</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>62</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0: 4</t>
+          <t>00: 02</t>
         </is>
       </c>
     </row>
@@ -950,7 +955,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -961,7 +966,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>紗布_重複偵測</t>
+          <t>try_video</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -993,22 +998,454 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>123</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0: 1</t>
+          <t>00: 04</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>151</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0: 4</t>
+          <t>00: 06</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Interrupt#1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1310</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>00: 48</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1322</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>00: 48</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Interrupt#2</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1539</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>00: 56</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1600</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>00: 59</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Interrupt#3</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1908</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>01: 10</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2066</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>01: 16</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Interrupt#4</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2457</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>01: 30</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2556</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>01: 34</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Interrupt#5</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2922</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>01: 47</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2974</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>01: 49</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Interrupt#6</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>3164</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>01: 56</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3255</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>01: 59</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Interrupt#7</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>3322</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>02: 02</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3333</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>02: 02</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Interrupt#8</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>3519</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>02: 09</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3565</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>02: 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Interrupt#9</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>3635</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>02: 13</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3680</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>02: 15</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Interrupt#10</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>3786</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>02: 19</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3865</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>02: 22</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Interrupt#11</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>3941</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>02: 25</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3988</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>02: 26</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Interrupt#12</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>4660</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>02: 51</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4884</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>02: 59</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Interrupt#13</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>4926</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>03: 01</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4971</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>03: 02</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Interrupt#14</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>5102</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>03: 07</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5165</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>03: 10</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Interrupt#15</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>5338</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>03: 16</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5373</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>03: 17</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Interrupt#16</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>5835</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>03: 34</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5877</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>03: 36</t>
         </is>
       </c>
     </row>
@@ -1071,7 +1508,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0: 1</t>
+          <t>00: 01</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -1081,7 +1518,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0: 2</t>
+          <t>00: 02</t>
         </is>
       </c>
     </row>
@@ -1096,7 +1533,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1107,7 +1544,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>紗布_重複偵測</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -1128,33 +1565,6 @@
       <c r="E1" t="inlineStr">
         <is>
           <t>End Time</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Interrupt#0</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0: 37</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>112</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>1: 52</t>
         </is>
       </c>
     </row>
@@ -1944,7 +2354,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1955,7 +2365,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>紗布_重複偵測</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -1976,33 +2386,6 @@
       <c r="E1" t="inlineStr">
         <is>
           <t>End Time</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Interrupt#0</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0: 37</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>112</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>1: 52</t>
         </is>
       </c>
     </row>
@@ -2028,7 +2411,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>鏡頭上血跡</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -2063,7 +2446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2074,7 +2457,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>紗布_少偵測</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -2095,33 +2478,6 @@
       <c r="E1" t="inlineStr">
         <is>
           <t>End Time</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Interrupt#0</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0: 30</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>1: 2</t>
         </is>
       </c>
     </row>
@@ -2147,7 +2503,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>鼻子_重複偵測</t>
+          <t>紗布_少偵測</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -2179,433 +2535,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>30</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0: 31</t>
+          <t>00: 01</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>62</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1: 22</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>紗布_少偵測</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Start Frame #</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Start Time</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>End Frame #</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>End Time</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Interrupt#0</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0: 30</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>1: 2</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>紗布_少偵測</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Start Frame #</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Start Time</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>End Frame #</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>End Time</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Interrupt#0</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0: 30</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>1: 2</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>紗布_少偵測</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Start Frame #</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Start Time</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>End Frame #</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>End Time</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Interrupt#0</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0: 30</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>1: 2</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>鏡頭上血跡</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Start Frame #</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Start Time</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>End Frame #</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>End Time</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>紗布_少偵測</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Start Frame #</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Start Time</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>End Frame #</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>End Time</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Interrupt#0</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0: 30</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>1: 2</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>紗布_少偵測</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Start Frame #</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Start Time</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>End Frame #</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>End Time</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Interrupt#0</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0: 30</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>1: 2</t>
+          <t>00: 02</t>
         </is>
       </c>
     </row>
@@ -3322,736 +3267,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>紗布_少偵測</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Start Frame #</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Start Time</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>End Frame #</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>End Time</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Interrupt#0</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0: 30</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>1: 2</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>紗布_少偵測</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Start Frame #</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Start Time</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>End Frame #</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>End Time</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Interrupt#0</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0: 30</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>1: 2</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>紗布_少偵測</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Start Frame #</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Start Time</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>End Frame #</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>End Time</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Interrupt#0</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0: 30</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>1: 2</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>紗布_少偵測</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Start Frame #</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Start Time</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>End Frame #</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>End Time</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Interrupt#0</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0: 1.0</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0: 2.0</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>紗布_少偵測</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Start Frame #</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Start Time</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>End Frame #</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>End Time</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Interrupt#0</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0: 1.0</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0: 2.0</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>紗布_少偵測</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Start Frame #</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Start Time</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>End Frame #</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>End Time</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Interrupt#0</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0: 1.0</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0: 2.0</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>紗布_少偵測</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Start Frame #</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Start Time</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>End Frame #</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>End Time</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Interrupt#0</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0: 1.0</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0: 2.0</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>紗布_少偵測</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Start Frame #</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Start Time</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>End Frame #</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>End Time</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Interrupt#0</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0: 1.0</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0: 2.0</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>紗布_少偵測</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Start Frame #</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Start Time</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>End Frame #</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>End Time</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Interrupt#0</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0: 1.0</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0: 2.0</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>紗布_少偵測</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Start Frame #</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Start Time</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>End Frame #</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>End Time</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Interrupt#0</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0: 1.0</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0: 2.0</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -4546,1254 +3761,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>紗布_少偵測</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Start Frame #</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Start Time</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>End Frame #</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>End Time</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Interrupt#0</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0: 1.0</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0: 2.0</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>紗布_少偵測</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Start Frame #</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Start Time</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>End Frame #</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>End Time</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Interrupt#0</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0: 1.0</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0: 2.0</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>try_video</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Start Frame #</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Start Time</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>End Frame #</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>End Time</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Interrupt#0</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0: 4.0</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>147</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0: 5.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Interrupt#1</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>1540</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0: 56.0</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1595</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0: 58.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Interrupt#2</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>1915</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>1: 10.0</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2065</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>1: 16.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Interrupt#3</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2457</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1: 30.0</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2555</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>1: 34.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Interrupt#4</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2922</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>1: 47.0</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2974</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>1: 49.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Interrupt#5</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>3164</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>1: 56.0</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3254</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>1: 59.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Interrupt#6</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>3322</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>2: 2.0</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>3332</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2: 2.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Interrupt#7</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>3519</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>2: 9.0</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>3565</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>2: 11.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Interrupt#8</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>3635</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>2: 13.0</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>3679</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>2: 15.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Interrupt#9</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>3788</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>2: 19.0</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>3862</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>2: 22.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Interrupt#10</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>3941</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>2: 25.0</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>3988</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>2: 26.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Interrupt#11</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>4660</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>2: 51.0</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>4879</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>2: 59.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Interrupt#12</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>4926</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>3: 1.0</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>4970</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>3: 2.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Interrupt#13</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>5102</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>3: 7.0</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>5165</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>3: 10.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Interrupt#14</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>5338</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>3: 16.0</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>5373</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>3: 17.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Interrupt#15</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>5839</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>3: 34.0</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>5868</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>3: 35.0</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>紗布_少偵測</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Start Frame #</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Start Time</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>End Frame #</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>End Time</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Interrupt#0</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0: 1.0</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0: 2.0</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>紗布_少偵測</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Start Frame #</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Start Time</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>End Frame #</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>End Time</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Interrupt#0</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0: 1.0</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0: 2.0</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>try_video</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Start Frame #</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Start Time</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>End Frame #</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>End Time</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Interrupt#0</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0: 4.0</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>147</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0: 5.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Interrupt#1</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>1540</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0: 56.0</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1595</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0: 58.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Interrupt#2</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>1915</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>1: 10.0</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2065</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>1: 16.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Interrupt#3</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2457</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1: 30.0</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2555</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>1: 34.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Interrupt#4</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2922</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>1: 47.0</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2974</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>1: 49.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Interrupt#5</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>3164</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>1: 56.0</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3254</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>1: 59.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Interrupt#6</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>3322</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>2: 2.0</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>3332</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2: 2.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Interrupt#7</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>3519</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>2: 9.0</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>3565</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>2: 11.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Interrupt#8</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>3635</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>2: 13.0</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>3679</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>2: 15.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Interrupt#9</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>3788</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>2: 19.0</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>3862</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>2: 22.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Interrupt#10</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>3941</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>2: 25.0</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>3988</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>2: 26.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Interrupt#11</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>4660</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>2: 51.0</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>4879</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>2: 59.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Interrupt#12</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>4926</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>3: 1.0</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>4970</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>3: 2.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Interrupt#13</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>5102</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>3: 7.0</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>5165</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>3: 10.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Interrupt#14</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>5338</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>3: 16.0</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>5373</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>3: 17.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Interrupt#15</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>5839</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>3: 34.0</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>5868</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>3: 35.0</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 

--- a/Result.xlsx
+++ b/Result.xlsx
@@ -29,6 +29,14 @@
     <sheet name="53" sheetId="21" state="visible" r:id="rId21"/>
     <sheet name="54" sheetId="22" state="visible" r:id="rId22"/>
     <sheet name="紗布_少偵測6" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="紗布_少偵測7" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="55" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="56" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="57" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="58" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="紗布_少偵測8" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="紗布_少偵測9" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="59" sheetId="31" state="visible" r:id="rId31"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -2559,6 +2567,336 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>紗布_少偵測</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Start Frame #</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>End Frame #</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>End Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Interrupt#0</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>00: 01</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>00: 02</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Start Frame #</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>End Frame #</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>End Time</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Start Frame #</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>End Frame #</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>End Time</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Start Frame #</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>End Frame #</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>End Time</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Start Frame #</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>End Frame #</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>End Time</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>紗布_少偵測</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Start Frame #</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>End Frame #</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>End Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Interrupt#0</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>00: 01</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>00: 02</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -3261,6 +3599,125 @@
     <row r="26">
       <c r="G26" s="1" t="n"/>
       <c r="H26" s="1" t="n"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>紗布_少偵測</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Start Frame #</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>End Frame #</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>End Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Interrupt#0</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>00: 01</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>00: 02</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Start Frame #</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>End Frame #</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>End Time</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Result.xlsx
+++ b/Result.xlsx
@@ -37,6 +37,27 @@
     <sheet name="紗布_少偵測8" sheetId="29" state="visible" r:id="rId29"/>
     <sheet name="紗布_少偵測9" sheetId="30" state="visible" r:id="rId30"/>
     <sheet name="59" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="血肉太白" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="血肉太白1" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="白煙" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="白煙1" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="白煙2" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="白煙3" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="白煙4" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="血肉太白2" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="白煙5" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="白煙6" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="白煙7" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="白煙8" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="白煙9" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="白煙10" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="白煙11" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="血肉太白3" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="白煙12" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="血肉太白4" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="白煙13" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="白煙14" sheetId="51" state="visible" r:id="rId51"/>
+    <sheet name="血肉太白5" sheetId="52" state="visible" r:id="rId52"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -3724,6 +3745,374 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>血肉太白</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Start Frame #</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>End Frame #</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>End Time</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>血肉太白</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Start Frame #</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>End Frame #</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>End Time</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>白煙</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Start Frame #</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>End Frame #</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>End Time</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>白煙</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Start Frame #</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>End Frame #</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>End Time</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>白煙</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Start Frame #</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>End Frame #</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>End Time</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>白煙</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Start Frame #</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>End Frame #</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>End Time</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>白煙</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Start Frame #</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>End Frame #</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>End Time</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>血肉太白</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Start Frame #</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>End Frame #</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>End Time</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -4218,6 +4607,466 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>白煙</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Start Frame #</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>End Frame #</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>End Time</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>白煙</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Start Frame #</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>End Frame #</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>End Time</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>白煙</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Start Frame #</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>End Frame #</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>End Time</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>白煙</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Start Frame #</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>End Frame #</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>End Time</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>白煙</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Start Frame #</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>End Frame #</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>End Time</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>白煙</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Start Frame #</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>End Frame #</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>End Time</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>白煙</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Start Frame #</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>End Frame #</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>End Time</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>血肉太白</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Start Frame #</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>End Frame #</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>End Time</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>白煙</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Start Frame #</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>End Frame #</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>End Time</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>血肉太白</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Start Frame #</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>End Frame #</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>End Time</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -4744,6 +5593,144 @@
       <c r="F18" s="1" t="inlineStr">
         <is>
           <t>O</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>白煙</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Start Frame #</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>End Frame #</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>End Time</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>白煙</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Start Frame #</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>End Frame #</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>End Time</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>血肉太白</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Start Frame #</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>End Frame #</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>End Time</t>
         </is>
       </c>
     </row>

--- a/Result.xlsx
+++ b/Result.xlsx
@@ -58,6 +58,14 @@
     <sheet name="白煙13" sheetId="50" state="visible" r:id="rId50"/>
     <sheet name="白煙14" sheetId="51" state="visible" r:id="rId51"/>
     <sheet name="血肉太白5" sheetId="52" state="visible" r:id="rId52"/>
+    <sheet name="白煙15" sheetId="53" state="visible" r:id="rId53"/>
+    <sheet name="白煙16" sheetId="54" state="visible" r:id="rId54"/>
+    <sheet name="血肉太白6" sheetId="55" state="visible" r:id="rId55"/>
+    <sheet name="白煙17" sheetId="56" state="visible" r:id="rId56"/>
+    <sheet name="血肉太白7" sheetId="57" state="visible" r:id="rId57"/>
+    <sheet name="血肉太白8" sheetId="58" state="visible" r:id="rId58"/>
+    <sheet name="白煙18" sheetId="59" state="visible" r:id="rId59"/>
+    <sheet name="血肉太白9" sheetId="60" state="visible" r:id="rId60"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -5739,6 +5747,328 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>白煙</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Start Frame #</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>End Frame #</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>End Time</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>白煙</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Start Frame #</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>End Frame #</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>End Time</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>血肉太白</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Start Frame #</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>End Frame #</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>End Time</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>白煙</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Start Frame #</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>End Frame #</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>End Time</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>血肉太白</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Start Frame #</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>End Frame #</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>End Time</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>血肉太白</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Start Frame #</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>End Frame #</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>End Time</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>白煙</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Start Frame #</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>End Frame #</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>End Time</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -6302,6 +6632,52 @@
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="1" t="n"/>
       <c r="D23" s="1" t="n"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>血肉太白</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Start Frame #</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>End Frame #</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>End Time</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Result.xlsx
+++ b/Result.xlsx
@@ -3,15 +3,44 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="1" activeTab="4" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="2022-10-28_101100_VID014" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="2022-10-28_101100_VID015" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="2022-11-04_114904_VID001" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="2022-11-04_114904_VID002" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="血肉太白" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="2022-11-04_114904_VID003" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="2022-11-04_114904_VID003" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="2022-11-04_114904_VID005" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="2022-11-04_114904_VID006" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="2022-11-04_114904_VID007" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="2022-11-04_114904_VID008" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="2022-11-04_114904_VID009" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="2022-11-04_114904_VID010" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="2022-10-28_101100_VID002" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="紗布_少偵測" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="try" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="try1" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="try2" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="try3" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="try4" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="try5" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="try6" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="try7" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="try8" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="try9" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="2022-10-28_101100_VID0021" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="2022-10-28_101100_VID003" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="2022-10-28_101100_VID004" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="2022-10-28_101100_VID005" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="2022-10-28_101100_VID006" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="2022-10-28_101100_VID007" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="2022-10-28_101100_VID008" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="2022-10-28_101100_VID009" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="2022-10-28_101100_VID010" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="2022-10-28_101100_VID011" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="2022-10-28_101100_VID012" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="2022-10-28_101100_VID013" sheetId="35" state="visible" r:id="rId35"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -875,6 +904,2180 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>2022-11-04_114904_VID009</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Start Frame #</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>End Frame #</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>End Time</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Label</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Interrupt#0</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2695</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>01: 39</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2719</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>01: 40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Interrupt#1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>10978</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>06: 43</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11055</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>06: 46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Interrupt#5</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>12368</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>07: 34</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12390</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>07: 35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Interrupt#6</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>12681</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>07: 45</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12769</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>07: 49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Interrupt#7</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>13852</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>08: 28</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13872</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>08: 29</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Interrupt#2</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>11108</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>06: 48</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11286</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>06: 54</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Interrupt#3</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>11330</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>06: 56</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11468</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>07: 01</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Interrupt#4</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>11497</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>07: 02</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11581</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>07: 05</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Interrupt#8</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>14210</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>08: 42</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>14247</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>08: 43</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Interrupt#9</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>14287</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>08: 44</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>14324</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>08: 46</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>2022-11-04_114904_VID010</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Start Frame #</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>End Frame #</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>End Time</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Label</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Interrupt#0</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>00: 00</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>417</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>00: 15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Interrupt#1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>488</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>00: 18</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1284</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>00: 47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Interrupt#2</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1563</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>00: 57</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1647</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>01: 00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Interrupt#3</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1679</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>01: 02</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2036</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>01: 15</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Interrupt#4</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2065</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>01: 16</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2211</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>01: 21</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>2022-10-28_101100_VID002</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Start Frame #</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>End Frame #</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>End Time</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Label</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Interrupt#0</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>00: 05</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>00: 05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Interrupt#1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1578</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>00: 58</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1591</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>00: 58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Interrupt#2</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1918</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>01: 10</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2065</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>01: 16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Interrupt#3</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2491</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>01: 31</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2554</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>01: 34</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Interrupt#4</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2960</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>01: 49</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2972</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>01: 49</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Interrupt#7</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>3551</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>02: 10</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3565</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>02: 11</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Interrupt#8</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>3637</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>02: 14</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3678</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>02: 15</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Interrupt#9</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>3797</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>02: 19</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3862</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>02: 22</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Interrupt#10</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>3941</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>02: 25</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3987</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>02: 26</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Interrupt#11</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>4660</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>02: 51</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4686</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>02: 52</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Interrupt#12</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>4739</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>02: 54</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4878</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>02: 59</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Interrupt#13</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>4954</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>03: 02</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4967</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>03: 02</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Interrupt#14</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>5148</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>03: 09</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5158</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>03: 09</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Interrupt#15</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>5340</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>03: 16</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5371</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>03: 17</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Interrupt#16</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>6654</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>04: 04</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6853</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>04: 12</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Interrupt#17</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>7459</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>04: 34</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7477</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>04: 34</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Interrupt#18</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>7810</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>04: 47</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8071</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>04: 56</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Interrupt#19</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>8170</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>04: 60</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8184</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>05: 00</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Interrupt#20</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>8406</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>05: 08</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8461</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>05: 10</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Interrupt#21</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>9217</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>05: 38</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>9303</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>05: 41</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Interrupt#22</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>9434</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>05: 46</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>9508</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>05: 49</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Interrupt#23</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>9737</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>05: 57</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>9816</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>06: 00</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Interrupt#24</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>10278</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>06: 17</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>10315</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>06: 18</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Interrupt#27</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>11402</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>06: 58</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>11412</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>06: 59</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Interrupt#28</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>11995</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>07: 20</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>12177</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>07: 27</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Interrupt#29</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>12493</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>07: 38</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>12706</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>07: 46</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Interrupt#30</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>13140</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>08: 02</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>13209</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>08: 05</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Interrupt#5</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>3180</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>01: 57</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3218</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>01: 58</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Interrupt#6</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>3241</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>01: 59</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3254</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>01: 59</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Interrupt#25</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>11094</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>06: 47</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>11238</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>06: 52</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Interrupt#26</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>11281</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>06: 54</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>11310</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>06: 55</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>紗布_少偵測</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Start Frame #</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>End Frame #</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>End Time</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Label</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>try</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Start Frame #</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>End Frame #</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>End Time</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Label</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Interrupt#0</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>00: 04</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>00: 06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>try</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Start Frame #</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>End Frame #</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>End Time</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Label</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Interrupt#0</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>00: 04</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>00: 06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>try</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Start Frame #</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>End Frame #</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>End Time</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Label</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Interrupt#0</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>00: 04</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>00: 06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>try</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Start Frame #</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>End Frame #</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>End Time</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Label</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Interrupt#0</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>00: 04</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>00: 06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>try</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Start Frame #</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>End Frame #</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>End Time</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Label</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Interrupt#0</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>00: 04</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>00: 06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>try</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Start Frame #</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>End Frame #</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>End Time</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Label</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Interrupt#0</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>00: 04</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>00: 06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -883,7 +3086,7 @@
   </sheetPr>
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
@@ -1399,6 +3602,5060 @@
       <c r="E19" t="inlineStr">
         <is>
           <t>07: 31</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>try</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Start Frame #</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>End Frame #</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>End Time</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Label</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Interrupt#0</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>00: 04</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>00: 06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>try</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Start Frame #</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>End Frame #</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>End Time</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Label</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Interrupt#0</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>00: 04</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>00: 06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>try</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Start Frame #</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>End Frame #</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>End Time</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Label</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Interrupt#0</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>00: 04</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>00: 06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>try</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Start Frame #</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>End Frame #</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>End Time</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Label</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Interrupt#0</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>00: 04</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>00: 06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>2022-10-28_101100_VID002</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Start Frame #</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>End Frame #</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>End Time</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Label</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Interrupt#0</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>00: 05</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>00: 05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Interrupt#1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1578</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>00: 58</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1591</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>00: 58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Interrupt#2</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1918</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>01: 10</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2065</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>01: 16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Interrupt#3</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2491</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>01: 31</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2554</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>01: 34</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Interrupt#4</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2960</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>01: 49</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2972</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>01: 49</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Interrupt#7</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>3551</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>02: 10</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3565</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>02: 11</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Interrupt#8</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>3637</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>02: 14</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3678</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>02: 15</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Interrupt#9</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>3797</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>02: 19</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3862</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>02: 22</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Interrupt#10</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>3941</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>02: 25</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3987</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>02: 26</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Interrupt#11</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>4660</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>02: 51</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4686</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>02: 52</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Interrupt#12</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>4739</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>02: 54</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4878</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>02: 59</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Interrupt#13</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>4954</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>03: 02</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4967</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>03: 02</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Interrupt#14</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>5148</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>03: 09</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5158</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>03: 09</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Interrupt#15</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>5340</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>03: 16</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5371</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>03: 17</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Interrupt#16</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>6654</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>04: 04</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6853</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>04: 12</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Interrupt#17</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>7459</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>04: 34</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7477</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>04: 34</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Interrupt#18</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>7810</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>04: 47</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8071</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>04: 56</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Interrupt#19</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>8170</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>04: 60</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8184</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>05: 00</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Interrupt#20</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>8406</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>05: 08</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8461</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>05: 10</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Interrupt#21</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>9217</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>05: 38</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>9303</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>05: 41</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Interrupt#22</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>9434</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>05: 46</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>9508</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>05: 49</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Interrupt#23</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>9737</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>05: 57</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>9816</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>06: 00</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Interrupt#24</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>10278</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>06: 17</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>10315</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>06: 18</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Interrupt#27</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>11402</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>06: 58</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>11412</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>06: 59</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Interrupt#28</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>11995</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>07: 20</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>12177</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>07: 27</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Interrupt#29</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>12493</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>07: 38</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>12706</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>07: 46</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Interrupt#30</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>13140</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>08: 02</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>13209</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>08: 05</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Interrupt#5</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>3180</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>01: 57</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3218</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>01: 58</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Interrupt#6</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>3241</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>01: 59</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3254</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>01: 59</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Interrupt#25</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>11094</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>06: 47</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>11238</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>06: 52</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Interrupt#26</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>11281</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>06: 54</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>11310</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>06: 55</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>2022-10-28_101100_VID003</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Start Frame #</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>End Frame #</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>End Time</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Label</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Interrupt#0</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>00: 07</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>235</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>00: 09</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Interrupt#1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>878</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>00: 32</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>890</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>00: 33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Interrupt#2</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2490</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>01: 31</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2747</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>01: 41</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Interrupt#3</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>4245</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>02: 36</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4256</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>02: 36</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Interrupt#6</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>5483</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>03: 21</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5509</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>03: 22</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Interrupt#7</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>5569</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>03: 24</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5593</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>03: 25</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Interrupt#8</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>6893</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>04: 13</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6977</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>04: 16</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Interrupt#12</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>9337</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>05: 43</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9392</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>05: 45</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Interrupt#13</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>11409</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>06: 59</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11419</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>06: 59</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Interrupt#14</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>13309</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>08: 08</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13505</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>08: 16</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Interrupt#4</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>4859</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>02: 58</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4872</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>02: 59</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Interrupt#5</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>4894</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>02: 60</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5012</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>03: 04</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Interrupt#9</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>8542</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>05: 14</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8554</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>05: 14</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Interrupt#10</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>8584</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>05: 15</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8594</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>05: 15</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Interrupt#11</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>8622</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>05: 16</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8651</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>05: 18</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>2022-10-28_101100_VID004</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Start Frame #</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>End Frame #</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>End Time</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Label</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Interrupt#0</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1178</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>00: 43</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1397</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>00: 51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Interrupt#1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1616</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>00: 59</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1633</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>00: 60</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Interrupt#2</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2173</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>01: 20</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2257</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>01: 23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Interrupt#3</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2755</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>01: 41</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2957</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>01: 48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Interrupt#4</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>3869</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>02: 22</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3922</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>02: 24</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Interrupt#9</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>5835</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>03: 34</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5864</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>03: 35</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Interrupt#10</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>7428</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>04: 33</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7438</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>04: 33</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Interrupt#11</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>8176</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>05: 00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8301</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>05: 05</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Interrupt#12</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>9084</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>05: 33</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9112</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>05: 34</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Interrupt#15</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>10343</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>06: 20</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10363</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>06: 20</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Interrupt#16</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>10912</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>06: 40</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10989</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>06: 43</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Interrupt#17</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>11066</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>06: 46</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11078</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>06: 46</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Interrupt#18</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>12113</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>07: 24</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12222</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>07: 28</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Interrupt#19</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>12706</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>07: 46</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>12745</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>07: 48</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Interrupt#20</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>14076</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>08: 37</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>14154</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>08: 39</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Interrupt#5</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>4898</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>02: 60</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4939</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>03: 01</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Interrupt#6</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>4965</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>03: 02</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5241</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>03: 12</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Interrupt#7</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>5284</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>03: 14</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5431</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>03: 19</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Interrupt#8</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>5458</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>03: 20</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5680</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>03: 28</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Interrupt#13</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>9448</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>05: 47</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>9465</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>05: 47</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Interrupt#14</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>9494</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>05: 48</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>9561</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>05: 51</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>2022-10-28_101100_VID005</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Start Frame #</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>End Frame #</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>End Time</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Label</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Interrupt#2</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>670</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>00: 25</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>751</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>00: 28</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Interrupt#3</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1790</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>01: 06</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1824</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>01: 07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Interrupt#6</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>4430</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>02: 43</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4603</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>02: 49</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Interrupt#7</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>5175</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>03: 10</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5185</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>03: 10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Interrupt#8</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>5739</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>03: 31</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5750</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>03: 31</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Interrupt#9</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>7285</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>04: 27</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7371</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>04: 30</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Interrupt#10</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>8146</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>04: 59</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8166</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>04: 60</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Interrupt#11</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>9041</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>05: 32</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9228</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>05: 39</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Interrupt#12</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>9483</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>05: 48</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9493</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>05: 48</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Interrupt#13</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>9579</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>05: 52</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9599</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>05: 52</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Interrupt#14</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>11041</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>06: 45</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11616</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>07: 06</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Interrupt#15</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>11937</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>07: 18</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12060</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>07: 23</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Interrupt#16</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>12393</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>07: 35</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12470</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>07: 38</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Interrupt#0</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>00: 02</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>00: 03</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Interrupt#1</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>00: 04</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>253</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>00: 09</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Interrupt#4</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>3325</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>02: 02</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3360</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>02: 03</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Interrupt#5</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>3382</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>02: 04</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3431</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>02: 06</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>2022-10-28_101100_VID006</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Start Frame #</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>End Frame #</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>End Time</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Label</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Interrupt#0</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>00: 09</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>345</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>00: 13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Interrupt#1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>461</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>00: 17</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1130</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>00: 42</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Interrupt#2</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1354</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>00: 50</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1494</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>00: 55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Interrupt#3</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2121</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>01: 18</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2154</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>01: 19</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Interrupt#6</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>3323</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>02: 02</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3809</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>02: 20</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Interrupt#11</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>6862</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>04: 12</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6906</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>04: 13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Interrupt#12</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>7026</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>04: 18</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7173</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>04: 23</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Interrupt#13</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>11103</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>06: 47</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11131</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>06: 48</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Interrupt#16</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>12022</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>07: 21</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12106</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>07: 24</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Interrupt#17</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>12571</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>07: 41</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12829</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>07: 51</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Interrupt#18</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>13195</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>08: 04</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13761</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>08: 25</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Interrupt#4</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2764</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>01: 41</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2803</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>01: 43</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Interrupt#5</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2829</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>01: 44</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3119</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>01: 54</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Interrupt#7</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>5095</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>03: 07</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5496</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>03: 22</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Interrupt#8</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>5522</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>03: 23</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5548</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>03: 24</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Interrupt#9</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>6142</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>03: 45</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6532</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>03: 60</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Interrupt#10</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>6566</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>04: 01</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6690</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>04: 06</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Interrupt#14</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>11767</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>07: 12</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>11813</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>07: 14</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Interrupt#15</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>11857</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>07: 15</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>11929</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>07: 18</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>2022-10-28_101100_VID007</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Start Frame #</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>End Frame #</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>End Time</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Label</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Interrupt#2</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>441</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>00: 16</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>592</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>00: 22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Interrupt#3</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>726</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>00: 27</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>762</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>00: 28</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Interrupt#4</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1263</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>00: 46</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1274</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>00: 47</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Interrupt#5</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1487</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>00: 55</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1527</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>00: 56</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Interrupt#6</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2353</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>01: 26</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2371</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>01: 27</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Interrupt#7</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>3317</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>02: 02</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3345</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>02: 03</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Interrupt#8</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>3439</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>02: 06</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3467</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>02: 07</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Interrupt#9</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>3661</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>02: 14</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3673</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>02: 15</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Interrupt#10</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>3835</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>02: 21</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3880</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>02: 22</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Interrupt#11</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>4992</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>03: 03</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5018</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>03: 04</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Interrupt#12</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>5877</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>03: 36</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5891</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>03: 36</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Interrupt#13</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>5960</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>03: 39</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5992</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>03: 40</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Interrupt#16</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>7694</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>04: 42</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7729</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>04: 44</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Interrupt#17</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>8333</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>05: 06</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8604</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>05: 16</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Interrupt#20</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>8919</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>05: 27</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8959</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>05: 29</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Interrupt#21</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>9051</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>05: 32</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9253</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>05: 40</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Interrupt#22</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>9774</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>05: 59</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>9784</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>05: 59</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Interrupt#25</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>10904</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>06: 40</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>10919</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>06: 41</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Interrupt#28</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>11399</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>06: 58</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>11409</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>06: 59</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Interrupt#31</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>12020</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>07: 21</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>12034</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>07: 22</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Interrupt#34</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>13718</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>08: 23</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>13841</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>08: 28</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Interrupt#0</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>00: 00</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>00: 10</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Interrupt#1</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>319</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>00: 12</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>337</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>00: 12</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Interrupt#14</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>6669</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>04: 05</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6681</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>04: 05</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Interrupt#15</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>6706</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>04: 06</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>6928</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>04: 14</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Interrupt#18</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>8720</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>05: 20</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>8739</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>05: 21</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Interrupt#19</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>8785</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>05: 22</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>8801</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>05: 23</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Interrupt#23</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>10376</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>06: 21</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>10387</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>06: 21</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Interrupt#24</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>10421</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>06: 22</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>10476</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>06: 24</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Interrupt#26</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>11263</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>06: 53</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>11275</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>06: 54</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Interrupt#27</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>11300</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>06: 55</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>11328</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>06: 56</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Interrupt#29</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>11586</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>07: 05</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>11623</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>07: 06</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Interrupt#30</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>11653</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>07: 08</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>11672</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>07: 08</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Interrupt#32</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>12881</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>07: 53</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>12957</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>07: 56</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Interrupt#33</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>12979</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>07: 56</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>12993</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>07: 57</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -1419,12 +8676,58 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>2022-11-04_114904_VID001</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Start Frame #</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>End Frame #</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>End Time</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>2022-11-04_114904_VID001</t>
+          <t>2022-10-28_101100_VID008</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -1445,6 +8748,1509 @@
       <c r="E1" t="inlineStr">
         <is>
           <t>End Time</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Label</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Interrupt#0</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>738</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>00: 27</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>748</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>00: 27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Interrupt#1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1211</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>00: 44</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1581</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>00: 58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Interrupt#2</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1905</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>01: 10</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1981</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>01: 13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Interrupt#3</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2907</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>01: 47</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3529</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>02: 10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Interrupt#4</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>4036</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>02: 28</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4055</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>02: 29</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Interrupt#5</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>4177</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>02: 33</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4209</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>02: 34</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Interrupt#6</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>4421</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>02: 42</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4607</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>02: 49</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Interrupt#7</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>5592</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>03: 25</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5602</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>03: 26</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Interrupt#8</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>5745</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>03: 31</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5781</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>03: 32</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Interrupt#13</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>7930</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>04: 51</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8278</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>05: 04</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Interrupt#14</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>8531</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>05: 13</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9087</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>05: 34</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Interrupt#15</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>9164</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>05: 36</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9402</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>05: 45</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Interrupt#9</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>7232</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>04: 25</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7297</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>04: 28</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Interrupt#10</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>7320</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>04: 29</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7455</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>04: 34</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Interrupt#11</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>7567</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>04: 38</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7582</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>04: 38</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Interrupt#12</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>7618</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>04: 40</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7869</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>04: 49</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>2022-10-28_101100_VID009</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Start Frame #</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>End Frame #</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>End Time</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Label</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Interrupt#2</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>4221</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>02: 35</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4262</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>02: 36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Interrupt#3</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>4503</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>02: 45</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4522</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>02: 46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Interrupt#4</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>5398</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>03: 18</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5415</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>03: 19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Interrupt#5</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>5597</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>03: 25</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5644</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>03: 27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Interrupt#6</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>11858</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>07: 15</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11882</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>07: 16</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Interrupt#0</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1926</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>01: 11</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1974</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>01: 12</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Interrupt#1</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>01: 13</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2046</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>01: 15</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>2022-10-28_101100_VID010</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Start Frame #</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>End Frame #</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>End Time</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Label</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Interrupt#0</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>10872</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>06: 39</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10946</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>06: 42</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>2022-10-28_101100_VID011</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Start Frame #</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>End Frame #</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>End Time</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Label</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>2022-10-28_101100_VID012</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Start Frame #</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>End Frame #</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>End Time</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Label</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Interrupt#0</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>9484</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>05: 48</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9513</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>05: 49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="3"/>
+    <row r="4"/>
+    <row r="5"/>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Interrupt#1</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>14498</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>08: 52</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14530</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>08: 53</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Interrupt#2</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>14553</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>08: 54</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>14585</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>08: 55</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>2022-10-28_101100_VID013</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Start Frame #</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>End Frame #</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>End Time</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Label</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Interrupt#3</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>7378</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>04: 31</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8047</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>04: 55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Interrupt#4</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>8174</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>05: 00</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8339</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>05: 06</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Interrupt#9</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>13325</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>08: 09</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13335</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>08: 09</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Interrupt#10</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>13415</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>08: 12</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13428</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>08: 13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Interrupt#0</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1892</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>01: 09</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1992</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>01: 13</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Interrupt#1</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2033</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>01: 15</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2044</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>01: 15</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Interrupt#2</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2067</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>01: 16</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2111</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>01: 18</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Interrupt#5</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>12578</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>07: 42</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13001</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>07: 57</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Interrupt#6</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>13051</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>07: 59</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>13090</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>08: 00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Interrupt#7</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>13115</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>08: 01</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>13133</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>08: 02</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Interrupt#8</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>13167</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>08: 03</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>13205</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>08: 05</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -1465,7 +10271,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -1532,18 +10338,18 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>血肉太白</t>
+          <t>2022-11-04_114904_VID003</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -1564,6 +10370,114 @@
       <c r="E1" t="inlineStr">
         <is>
           <t>End Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Interrupt#0</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>7402</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>04: 32</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7490</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>04: 35</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Interrupt#1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>13062</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>07: 59</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13085</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>08: 00</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Interrupt#2</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>14408</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>08: 49</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14530</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>08: 53</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Interrupt#3</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>14557</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>08: 54</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14607</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>08: 56</t>
         </is>
       </c>
     </row>
@@ -1578,7 +10492,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1589,7 +10503,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>2022-11-04_114904_VID003</t>
+          <t>2022-11-04_114904_VID005</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -1610,6 +10524,11 @@
       <c r="E1" t="inlineStr">
         <is>
           <t>End Time</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Label</t>
         </is>
       </c>
     </row>
@@ -1621,22 +10540,110 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>7402</t>
+          <t>9112</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>04: 32</t>
+          <t>05: 34</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7490</t>
+          <t>9209</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>04: 35</t>
+          <t>05: 38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>2022-11-04_114904_VID006</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Start Frame #</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>End Frame #</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>End Time</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Label</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Interrupt#0</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1703</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>01: 02</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1797</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>01: 06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1648,76 +10655,673 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>13062</t>
+          <t>1858</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>07: 59</t>
+          <t>01: 08</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>13085</t>
+          <t>1907</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>08: 00</t>
+          <t>01: 10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Interrupt#2</t>
+          <t>Interrupt#4</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>14408</t>
+          <t>12769</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>08: 49</t>
+          <t>07: 49</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>14530</t>
+          <t>12911</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>08: 53</t>
+          <t>07: 54</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>Interrupt#7</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>13534</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>08: 17</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13544</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>08: 17</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Interrupt#2</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2039</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>01: 15</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2152</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>01: 19</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>Interrupt#3</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2196</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>01: 21</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2286</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>01: 24</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Interrupt#5</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>12969</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>07: 56</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13441</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>08: 13</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Interrupt#6</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>13463</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>08: 14</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13474</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>08: 14</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>2022-11-04_114904_VID007</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Start Frame #</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>End Frame #</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>End Time</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Label</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Interrupt#2</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>10539</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>06: 27</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10652</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>06: 31</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Interrupt#3</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>10713</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>06: 33</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10811</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>06: 37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Interrupt#4</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>11271</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>06: 54</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11501</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>07: 02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Interrupt#0</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>7348</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>04: 30</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7487</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>04: 35</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Interrupt#1</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>7525</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>04: 36</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7585</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>04: 38</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>2022-11-04_114904_VID008</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Start Frame #</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>End Frame #</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>End Time</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Label</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Interrupt#0</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>14557</t>
+          <t>4192</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>08: 54</t>
+          <t>02: 34</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>14607</t>
+          <t>4227</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>08: 56</t>
+          <t>02: 35</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Interrupt#1</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>4270</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>02: 37</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4328</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>02: 39</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Interrupt#2</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>11006</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>06: 44</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11051</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>06: 46</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Interrupt#3</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>11077</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>06: 46</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11097</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>06: 47</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Interrupt#4</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>13082</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>08: 00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13158</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>08: 03</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Interrupt#5</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>13189</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>08: 04</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13202</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>08: 04</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>B</t>
         </is>
       </c>
     </row>

--- a/Result.xlsx
+++ b/Result.xlsx
@@ -26,6 +26,7 @@
     <sheet name="try_video5" sheetId="18" state="visible" r:id="rId18"/>
     <sheet name="try_video6" sheetId="19" state="visible" r:id="rId19"/>
     <sheet name="try_video7" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="try_video8" sheetId="21" state="visible" r:id="rId21"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -8764,9 +8765,6 @@
         </is>
       </c>
     </row>
-    <row r="13"/>
-    <row r="14"/>
-    <row r="15"/>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
@@ -8779,9 +8777,6 @@
         </is>
       </c>
     </row>
-    <row r="17"/>
-    <row r="18"/>
-    <row r="19"/>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
@@ -9707,6 +9702,907 @@
         </is>
       </c>
     </row>
+    <row r="13"/>
+    <row r="14"/>
+    <row r="15"/>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>總手術中段時間</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>00: 32</t>
+        </is>
+      </c>
+    </row>
+    <row r="17"/>
+    <row r="18"/>
+    <row r="19"/>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Interrupt#0</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>00: 05</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>00: 05</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Interrupt#1</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>1578</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>00: 58</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1591</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>00: 58</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Interrupt#2</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>1918</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>01: 10</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2065</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>01: 16</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Interrupt#3</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2491</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>01: 31</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2554</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>01: 34</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Interrupt#4</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2960</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>01: 49</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2972</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>01: 49</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Interrupt#5</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>3180</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>01: 57</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3218</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>01: 58</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Interrupt#6</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>3241</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>01: 59</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3254</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>01: 59</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Interrupt#7</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>3551</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>02: 10</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3565</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>02: 11</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Interrupt#8</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>3797</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>02: 19</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3862</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>02: 22</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Interrupt#9</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>3941</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>02: 25</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3987</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>02: 26</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Interrupt#10</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>4660</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>02: 51</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4686</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>02: 52</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Interrupt#11</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>4739</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>02: 54</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4878</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>02: 59</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Interrupt#12</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>4954</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>03: 02</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4967</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>03: 02</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Interrupt#13</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>5148</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>03: 09</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5158</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>03: 09</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Interrupt#14</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>5340</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>03: 16</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>5371</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>03: 17</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>try_video</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Start Frame #</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>End Frame #</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>End Time</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Label</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Interrupt#0</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>00: 05</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>00: 05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Interrupt#1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1578</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>00: 58</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1591</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>00: 58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Interrupt#2</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1918</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>01: 10</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2065</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>01: 16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Interrupt#3</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2491</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>01: 31</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2554</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>01: 34</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Interrupt#4</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2960</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>01: 49</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2972</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>01: 49</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Interrupt#5</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>3180</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>01: 57</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3254</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>01: 59</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Interrupt#6</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>3551</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>02: 10</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3565</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>02: 11</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Interrupt#7</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>3797</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>02: 19</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3987</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>02: 26</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Interrupt#8</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>4660</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>02: 51</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4967</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>03: 02</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Interrupt#9</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>5148</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>03: 09</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5158</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>03: 09</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Interrupt#10</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>5340</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>03: 16</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5371</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>03: 17</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
     <row r="13">
       <c r="A13" t="inlineStr"/>
       <c r="B13" t="inlineStr"/>

--- a/Result.xlsx
+++ b/Result.xlsx
@@ -9,6 +9,23 @@
     <sheet name="try_video8" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="try" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="try1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="try2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="try3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="try4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="try5" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="try6" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="try7" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="try8" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="try9" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="try10" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="try11" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="try12" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="try13" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="try14" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="try15" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="try16" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="try17" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="try18" sheetId="20" state="visible" r:id="rId20"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -1298,6 +1315,1282 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>try</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Start Frame #</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>End Frame #</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>End Time</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Label</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Interrupt#0</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>00: 04</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>00: 06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>總手術中段時間</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>00: 02</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Interrupt#0</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>00: 04</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>00: 06</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>try</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Start Frame #</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>End Frame #</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>End Time</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Label</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Interrupt#0</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>00: 04</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>00: 06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>總手術中段時間</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>00: 02</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Interrupt#0</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>00: 04</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>00: 06</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>try</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Start Frame #</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>End Frame #</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>End Time</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Label</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Interrupt#0</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>00: 04</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>00: 06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>總手術中段時間</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>00: 02</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Interrupt#0</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>00: 04</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>00: 06</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>try</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Start Frame #</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>End Frame #</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>End Time</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Label</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Interrupt#0</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>00: 04</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>00: 06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>總手術中段時間</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>00: 02</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Interrupt#0</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>00: 04</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>00: 06</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>try</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Start Frame #</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>End Frame #</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>End Time</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Label</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Interrupt#0</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>00: 04</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>00: 06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>總手術中段時間</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>00: 02</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Interrupt#0</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>00: 04</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>00: 06</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>try</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Start Frame #</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>End Frame #</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>End Time</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Label</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Interrupt#0</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>00: 04</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>00: 06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>總手術中段時間</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>00: 02</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Interrupt#0</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>00: 04</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>00: 06</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>try</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Start Frame #</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>End Frame #</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>End Time</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Label</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Interrupt#0</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>00: 04</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>00: 06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>總手術中段時間</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>00: 02</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Interrupt#0</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>00: 04</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>00: 06</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>try</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Start Frame #</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>End Frame #</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>End Time</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Label</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Interrupt#0</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>00: 04</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>00: 06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>總手術中段時間</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>00: 02</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Interrupt#0</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>00: 04</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>00: 06</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>try</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Start Frame #</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>End Frame #</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>End Time</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Label</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Interrupt#0</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>00: 04</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>00: 06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>總手術中段時間</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>00: 02</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Interrupt#0</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>00: 04</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>00: 06</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>try</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Start Frame #</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>End Frame #</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>End Time</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Label</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Interrupt#0</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>00: 04</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>00: 06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="3"/>
+    <row r="4"/>
+    <row r="5"/>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>總手術中段時間</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>00: 02</t>
+        </is>
+      </c>
+    </row>
+    <row r="7"/>
+    <row r="8"/>
+    <row r="9"/>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Interrupt#0</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>00: 04</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>00: 06</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -1330,6 +2623,185 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>try</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Start Frame #</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>End Frame #</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>End Time</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Label</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Interrupt#0</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>00: 04</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>00: 06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>總手術中段時間</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>00: 02</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Interrupt#0</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>00: 04</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>00: 06</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1411,30 +2883,6 @@
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-    </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
@@ -1446,34 +2894,768 @@
           <t>00: 02</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Interrupt#0</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>00: 04</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>00: 06</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>try</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Start Frame #</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>End Frame #</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>End Time</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Label</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Interrupt#0</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>00: 04</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>00: 06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>總手術中段時間</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>00: 02</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Interrupt#0</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>00: 04</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>00: 06</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>try</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Start Frame #</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>End Frame #</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>End Time</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Label</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Interrupt#0</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>00: 04</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>00: 06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>總手術中段時間</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>00: 02</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Interrupt#0</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>00: 04</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>00: 06</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>try</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Start Frame #</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>End Frame #</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>End Time</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Label</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Interrupt#0</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>00: 04</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>00: 06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>總手術中段時間</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>00: 02</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Interrupt#0</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>00: 04</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>00: 06</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>try</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Start Frame #</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>End Frame #</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>End Time</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Label</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Interrupt#0</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>00: 04</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>00: 06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>總手術中段時間</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>00: 02</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Interrupt#0</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>00: 04</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>00: 06</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>try</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Start Frame #</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>End Frame #</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>End Time</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Label</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Interrupt#0</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>00: 04</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>00: 06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>總手術中段時間</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>00: 02</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Interrupt#0</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>00: 04</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>00: 06</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>try</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Start Frame #</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>End Frame #</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>End Time</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Label</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Interrupt#0</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>00: 04</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>00: 06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>總手術中段時間</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>00: 02</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">

--- a/Result.xlsx
+++ b/Result.xlsx
@@ -1,41 +1,325 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yipei\主要資料夾\Visual Studio Code Projects\ComputerProjectDesign\ProjectDesign\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2980A7B6-C07E-44BF-94F9-4CB0943BE9C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3915" yWindow="2655" windowWidth="21360" windowHeight="11295" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21360" windowHeight="11295" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="try" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="try" sheetId="2" r:id="rId2"/>
+    <sheet name="try2" sheetId="3" r:id="rId3"/>
+    <sheet name="2022-11-04_114904" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="88">
+  <si>
+    <t>try</t>
+  </si>
+  <si>
+    <t>Start Time</t>
+  </si>
+  <si>
+    <t>End Time</t>
+  </si>
+  <si>
+    <t>video001</t>
+  </si>
+  <si>
+    <t>Interrupt#1</t>
+  </si>
+  <si>
+    <t>00: 04</t>
+  </si>
+  <si>
+    <t>00: 06</t>
+  </si>
+  <si>
+    <t>video002</t>
+  </si>
+  <si>
+    <t>No interrupt</t>
+  </si>
+  <si>
+    <t>video003</t>
+  </si>
+  <si>
+    <t>video004</t>
+  </si>
+  <si>
+    <t>總手術中斷次數</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>總手術中斷時間</t>
+  </si>
+  <si>
+    <t>00: 02</t>
+  </si>
+  <si>
+    <t>try2</t>
+  </si>
+  <si>
+    <t>白煙</t>
+  </si>
+  <si>
+    <t>紗布_少偵測</t>
+  </si>
+  <si>
+    <t>血肉太白</t>
+  </si>
+  <si>
+    <t>2022-11-04_114904</t>
+  </si>
+  <si>
+    <t>2022-11-04_114904_VID001</t>
+  </si>
+  <si>
+    <t>2022-11-04_114904_VID002</t>
+  </si>
+  <si>
+    <t>04: 52</t>
+  </si>
+  <si>
+    <t>05: 01</t>
+  </si>
+  <si>
+    <t>2022-11-04_114904_VID003</t>
+  </si>
+  <si>
+    <t>02: 59</t>
+  </si>
+  <si>
+    <t>Interrupt#2</t>
+  </si>
+  <si>
+    <t>03: 38</t>
+  </si>
+  <si>
+    <t>Interrupt#3</t>
+  </si>
+  <si>
+    <t>04: 32</t>
+  </si>
+  <si>
+    <t>04: 35</t>
+  </si>
+  <si>
+    <t>Interrupt#4</t>
+  </si>
+  <si>
+    <t>07: 57</t>
+  </si>
+  <si>
+    <t>08: 00</t>
+  </si>
+  <si>
+    <t>Interrupt#5</t>
+  </si>
+  <si>
+    <t>08: 48</t>
+  </si>
+  <si>
+    <t>08: 56</t>
+  </si>
+  <si>
+    <t>2022-11-04_114904_VID004</t>
+  </si>
+  <si>
+    <t>03: 14</t>
+  </si>
+  <si>
+    <t>03: 19</t>
+  </si>
+  <si>
+    <t>07: 46</t>
+  </si>
+  <si>
+    <t>07: 47</t>
+  </si>
+  <si>
+    <t>2022-11-04_114904_VID005</t>
+  </si>
+  <si>
+    <t>05: 34</t>
+  </si>
+  <si>
+    <t>05: 38</t>
+  </si>
+  <si>
+    <t>2022-11-04_114904_VID006</t>
+  </si>
+  <si>
+    <t>01: 02</t>
+  </si>
+  <si>
+    <t>01: 24</t>
+  </si>
+  <si>
+    <t>03: 16</t>
+  </si>
+  <si>
+    <t>07: 48</t>
+  </si>
+  <si>
+    <t>08: 17</t>
+  </si>
+  <si>
+    <t>2022-11-04_114904_VID007</t>
+  </si>
+  <si>
+    <t>04: 30</t>
+  </si>
+  <si>
+    <t>04: 38</t>
+  </si>
+  <si>
+    <t>06: 27</t>
+  </si>
+  <si>
+    <t>06: 37</t>
+  </si>
+  <si>
+    <t>06: 54</t>
+  </si>
+  <si>
+    <t>07: 02</t>
+  </si>
+  <si>
+    <t>2022-11-04_114904_VID008</t>
+  </si>
+  <si>
+    <t>02: 34</t>
+  </si>
+  <si>
+    <t>02: 39</t>
+  </si>
+  <si>
+    <t>05: 08</t>
+  </si>
+  <si>
+    <t>05: 11</t>
+  </si>
+  <si>
+    <t>06: 44</t>
+  </si>
+  <si>
+    <t>06: 49</t>
+  </si>
+  <si>
+    <t>08: 04</t>
+  </si>
+  <si>
+    <t>2022-11-04_114904_VID009</t>
+  </si>
+  <si>
+    <t>01: 39</t>
+  </si>
+  <si>
+    <t>01: 40</t>
+  </si>
+  <si>
+    <t>04: 16</t>
+  </si>
+  <si>
+    <t>04: 22</t>
+  </si>
+  <si>
+    <t>06: 43</t>
+  </si>
+  <si>
+    <t>07: 05</t>
+  </si>
+  <si>
+    <t>07: 34</t>
+  </si>
+  <si>
+    <t>07: 35</t>
+  </si>
+  <si>
+    <t>07: 45</t>
+  </si>
+  <si>
+    <t>Interrupt#6</t>
+  </si>
+  <si>
+    <t>08: 28</t>
+  </si>
+  <si>
+    <t>08: 29</t>
+  </si>
+  <si>
+    <t>2022-11-04_114904_VID010</t>
+  </si>
+  <si>
+    <t>00: 00</t>
+  </si>
+  <si>
+    <t>00: 15</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>手術總中斷次數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手術總中斷時間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手術總執行時間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手術表現評分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="[h]:mm"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="新細明體"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
       <name val="新細明體"/>
+      <family val="3"/>
       <charset val="136"/>
-      <family val="3"/>
-      <sz val="9"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -53,81 +337,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -393,192 +619,609 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:C54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>try</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Start Time</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>End Time</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>video001</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Interrupt#1</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>00: 04</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>00: 06</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>video002</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>No interrupt</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>video003</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>No interrupt</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>video004</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>No interrupt</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr"/>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr"/>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>總手術中斷次數</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>總手術中斷時間</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>00: 02</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>28</v>
+      </c>
+      <c r="B42" t="s">
+        <v>71</v>
+      </c>
+      <c r="C42" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>31</v>
+      </c>
+      <c r="B43" t="s">
+        <v>73</v>
+      </c>
+      <c r="C43" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44" t="s">
+        <v>75</v>
+      </c>
+      <c r="C44" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>76</v>
+      </c>
+      <c r="B45" t="s">
+        <v>77</v>
+      </c>
+      <c r="C45" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" t="s">
+        <v>80</v>
+      </c>
+      <c r="C48" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>83</v>
+      </c>
+      <c r="B51" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>84</v>
+      </c>
+      <c r="B52" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>85</v>
+      </c>
+      <c r="B53" s="1">
+        <v>3.4506944444444443</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>86</v>
+      </c>
+      <c r="B54" t="s">
+        <v>87</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Result.xlsx
+++ b/Result.xlsx
@@ -3,13 +3,15 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="目前測過的手術日期總資訊" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="remove" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="2022-04-15_101248" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="try" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="try2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="try3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="try" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -400,7 +402,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
@@ -477,29 +479,29 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022-04-15_101248</t>
+          <t>try</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>143.6</v>
+        <v>0.6</v>
       </c>
       <c r="C3" t="n">
-        <v>14.8</v>
+        <v>0.1</v>
       </c>
       <c r="D3" t="n">
-        <v>115</v>
+        <v>3</v>
       </c>
       <c r="E3" t="n">
-        <v>10.3</v>
+        <v>20.2</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>B-</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -593,7 +595,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>try2</t>
+          <t>try</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -629,13 +631,13 @@
         <v>0.6</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>13.4</v>
+        <v>6.7</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -644,14 +646,14 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>try</t>
+          <t>try2</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -748,19 +750,19 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>6.7</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>A+</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -803,20 +805,426 @@
         <v>0.6</v>
       </c>
       <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>try</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>try</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2022-04-15_101248</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>143.6</v>
+      </c>
+      <c r="C17" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="D17" t="n">
+        <v>115</v>
+      </c>
+      <c r="E17" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>B-</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>try</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>try</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>try</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>try2</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>try</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C22" t="n">
         <v>0.1</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D22" t="n">
         <v>2</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E22" t="n">
         <v>13.4</v>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>try</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>try</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>try</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>try</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>try</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>try</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2</v>
+      </c>
+      <c r="E28" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
         <is>
           <t>C</t>
         </is>
@@ -1232,8 +1640,6 @@
           <t>2022-04-15_101248_VID002</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1258,8 +1664,6 @@
           <t>2022-04-15_101248_VID002</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1284,8 +1688,6 @@
           <t>2022-04-15_101248_VID002</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1310,8 +1712,6 @@
           <t>2022-04-15_101248_VID002</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1336,8 +1736,6 @@
           <t>2022-04-15_101248_VID002</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1362,8 +1760,6 @@
           <t>2022-04-15_101248_VID002</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1388,8 +1784,6 @@
           <t>2022-04-15_101248_VID002</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr"/>
-      <c r="C45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1414,8 +1808,6 @@
           <t>2022-04-15_101248_VID002</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr"/>
-      <c r="C47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1440,8 +1832,6 @@
           <t>2022-04-15_101248_VID002</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr"/>
-      <c r="C49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1466,8 +1856,6 @@
           <t>2022-04-15_101248_VID002</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr"/>
-      <c r="C51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1492,8 +1880,6 @@
           <t>2022-04-15_101248_VID002</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr"/>
-      <c r="C53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1518,8 +1904,6 @@
           <t>2022-04-15_101248_VID002</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr"/>
-      <c r="C55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1574,7 +1958,6 @@
         </is>
       </c>
     </row>
-    <row r="2"/>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
@@ -1582,7 +1965,6 @@
         </is>
       </c>
     </row>
-    <row r="4"/>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
@@ -1760,7 +2142,6 @@
         </is>
       </c>
     </row>
-    <row r="16"/>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
@@ -1904,7 +2285,6 @@
         </is>
       </c>
     </row>
-    <row r="26"/>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
@@ -2031,7 +2411,6 @@
         </is>
       </c>
     </row>
-    <row r="35"/>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
@@ -2158,7 +2537,6 @@
         </is>
       </c>
     </row>
-    <row r="44"/>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
@@ -2387,7 +2765,6 @@
         </is>
       </c>
     </row>
-    <row r="59"/>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
@@ -2565,7 +2942,6 @@
         </is>
       </c>
     </row>
-    <row r="71"/>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
@@ -2658,7 +3034,6 @@
         </is>
       </c>
     </row>
-    <row r="78"/>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
@@ -2785,7 +3160,6 @@
         </is>
       </c>
     </row>
-    <row r="87"/>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
@@ -2878,7 +3252,6 @@
         </is>
       </c>
     </row>
-    <row r="94"/>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
@@ -2893,7 +3266,6 @@
         </is>
       </c>
     </row>
-    <row r="97"/>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
@@ -2935,7 +3307,6 @@
         </is>
       </c>
     </row>
-    <row r="101"/>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
@@ -3113,7 +3484,6 @@
         </is>
       </c>
     </row>
-    <row r="113"/>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
@@ -3189,7 +3559,6 @@
         </is>
       </c>
     </row>
-    <row r="119"/>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
@@ -3282,7 +3651,6 @@
         </is>
       </c>
     </row>
-    <row r="126"/>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
@@ -3358,8 +3726,6 @@
         </is>
       </c>
     </row>
-    <row r="132"/>
-    <row r="133"/>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
@@ -3465,7 +3831,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>try</t>
+          <t>try2</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -3482,7 +3848,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>video001</t>
+          <t>try</t>
         </is>
       </c>
     </row>
@@ -3506,7 +3872,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>video002</t>
+          <t>白煙</t>
         </is>
       </c>
     </row>
@@ -3520,7 +3886,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>video003</t>
+          <t>紗布_少偵測</t>
         </is>
       </c>
     </row>
@@ -3534,7 +3900,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>video004</t>
+          <t>血肉太白</t>
         </is>
       </c>
     </row>
@@ -3628,6 +3994,452 @@
           <t>B</t>
         </is>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>try</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>End Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="2"/>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>video001</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Interrupt#1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>00: 04</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>00: 06</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Interrupt#2</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>00: 04</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>00: 06</t>
+        </is>
+      </c>
+    </row>
+    <row r="6"/>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>video002</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>No interrupt</t>
+        </is>
+      </c>
+    </row>
+    <row r="9"/>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>video003</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>No interrupt</t>
+        </is>
+      </c>
+    </row>
+    <row r="12"/>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>video004</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>No interrupt</t>
+        </is>
+      </c>
+    </row>
+    <row r="15"/>
+    <row r="16"/>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>手術總執行時間</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>00: 36</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>手術總中斷時間</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>00: 07</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>手術總中斷次數</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>中斷時間佔整個手術時間的比例</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>20.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>平均每九分鐘的中斷次數</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>45.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>手術中斷次數評分</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>手術效率評分</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>try</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>End Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>video001</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Interrupt#1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>00: 04</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>00: 06</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>video002</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>No interrupt</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>video003</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>No interrupt</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>video004</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>No interrupt</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr"/>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>手術總執行時間</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>00: 36</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>手術總中斷時間</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>00: 02</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>手術總中斷次數</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>中斷時間佔整個手術時間的比例</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>6.7</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>平均每九分鐘的中斷次數</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>15.13</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>手術中斷次數評分</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>手術效率評分</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
